--- a/medicine/Hématologie/Coagulopathie/Coagulopathie.xlsx
+++ b/medicine/Hématologie/Coagulopathie/Coagulopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une coagulopathie, ou diathèse hémorragique est un trouble de la coagulation, celle-ci n'étant pas assez intense pour contrôler une hémorragie bénigne. Des hémorragies ainsi majorées sont le principal symptôme quelle que soit la cause de cette insuffisance.
 L'hémophilie est une maladie génétique caractérisée par une coagulopathie.
